--- a/aux-enem/mapas/mapa_2021.xlsx
+++ b/aux-enem/mapas/mapa_2021.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>First day of the 2021 exam</t>
+          <t>First day - ENEM 2021</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Second day of the 2021 exam</t>
+          <t>Second day - ENEM 2021</t>
         </is>
       </c>
     </row>
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>29.84803221197559</v>
+        <v>29.85</v>
       </c>
       <c r="G2" t="n">
-        <v>36.40962114173634</v>
+        <v>35.42</v>
       </c>
     </row>
     <row r="3">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>20.21276595744681</v>
+        <v>20.21</v>
       </c>
       <c r="G3" t="n">
-        <v>29.48030762060126</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="4">
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>46.50236569443613</v>
+        <v>46.5</v>
       </c>
       <c r="G4" t="n">
-        <v>48.60655442189134</v>
+        <v>52.19</v>
       </c>
     </row>
     <row r="5">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>26.93169092945129</v>
+        <v>26.93</v>
       </c>
       <c r="G5" t="n">
-        <v>37.04371338440739</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="6">
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>17.8060826618144</v>
+        <v>17.81</v>
       </c>
       <c r="G6" t="n">
-        <v>24.73278505315643</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="7">
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>20.1187565490744</v>
+        <v>20.12</v>
       </c>
       <c r="G7" t="n">
-        <v>25.58800723701214</v>
+        <v>24.52</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>26.17647058823529</v>
+        <v>26.18</v>
       </c>
       <c r="G8" t="n">
-        <v>33.00550747442959</v>
+        <v>30.15</v>
       </c>
     </row>
     <row r="9">
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>18.29706717123936</v>
+        <v>18.3</v>
       </c>
       <c r="G9" t="n">
-        <v>25.43805773329961</v>
+        <v>21.77</v>
       </c>
     </row>
     <row r="10">
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>14.35222821668761</v>
+        <v>14.35</v>
       </c>
       <c r="G10" t="n">
-        <v>19.50171821305842</v>
+        <v>16.52</v>
       </c>
     </row>
     <row r="11">
@@ -794,10 +794,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>33.1615839586084</v>
+        <v>33.16</v>
       </c>
       <c r="G11" t="n">
-        <v>30.19850056325992</v>
+        <v>36.61</v>
       </c>
     </row>
     <row r="12">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>11.9947445706778</v>
+        <v>11.99</v>
       </c>
       <c r="G12" t="n">
-        <v>17.56781031075984</v>
+        <v>14.63</v>
       </c>
     </row>
     <row r="13">
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>21.0517368391228</v>
+        <v>21.05</v>
       </c>
       <c r="G13" t="n">
-        <v>25.6900805287902</v>
+        <v>23.47</v>
       </c>
     </row>
     <row r="14">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>22.49235588037885</v>
+        <v>22.49</v>
       </c>
       <c r="G14" t="n">
-        <v>26.2568293466783</v>
+        <v>25.35</v>
       </c>
     </row>
     <row r="15">
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>15.36589930750515</v>
+        <v>15.37</v>
       </c>
       <c r="G15" t="n">
-        <v>28.2562958240357</v>
+        <v>18.51</v>
       </c>
     </row>
     <row r="16">
@@ -959,10 +959,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>16.80424528301887</v>
+        <v>16.8</v>
       </c>
       <c r="G16" t="n">
-        <v>21.92186632105166</v>
+        <v>20.11</v>
       </c>
     </row>
     <row r="17">
@@ -992,10 +992,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>23.58034970857618</v>
+        <v>23.58</v>
       </c>
       <c r="G17" t="n">
-        <v>24.64537014140233</v>
+        <v>27.13</v>
       </c>
     </row>
     <row r="18">
@@ -1025,10 +1025,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>17.88405255619902</v>
+        <v>17.88</v>
       </c>
       <c r="G18" t="n">
-        <v>21.93730125310372</v>
+        <v>21.17</v>
       </c>
     </row>
     <row r="19">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>16.70159143682392</v>
+        <v>16.7</v>
       </c>
       <c r="G19" t="n">
-        <v>23.002300230023</v>
+        <v>20.96</v>
       </c>
     </row>
     <row r="20">
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>14.79529273961822</v>
+        <v>14.8</v>
       </c>
       <c r="G20" t="n">
-        <v>23.93658215825236</v>
+        <v>18.68</v>
       </c>
     </row>
     <row r="21">
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>15.33271672653488</v>
+        <v>15.33</v>
       </c>
       <c r="G21" t="n">
-        <v>25.31864673485445</v>
+        <v>18.74</v>
       </c>
     </row>
     <row r="22">
@@ -1157,10 +1157,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>17.97946418033754</v>
+        <v>17.98</v>
       </c>
       <c r="G22" t="n">
-        <v>27.206949331107</v>
+        <v>21.84</v>
       </c>
     </row>
     <row r="23">
@@ -1190,10 +1190,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>20.08411002500568</v>
+        <v>20.08</v>
       </c>
       <c r="G23" t="n">
-        <v>26.19747094137182</v>
+        <v>24.54</v>
       </c>
     </row>
     <row r="24">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>17.36446666480462</v>
+        <v>17.36</v>
       </c>
       <c r="G24" t="n">
-        <v>24.12886573299556</v>
+        <v>21.44</v>
       </c>
     </row>
     <row r="25">
@@ -1256,10 +1256,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>19.64955022488756</v>
+        <v>19.65</v>
       </c>
       <c r="G25" t="n">
-        <v>28.08088515833652</v>
+        <v>24.01</v>
       </c>
     </row>
     <row r="26">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>20.16846414232858</v>
+        <v>20.17</v>
       </c>
       <c r="G26" t="n">
-        <v>28.26331694021449</v>
+        <v>24.55</v>
       </c>
     </row>
     <row r="27">
@@ -1322,10 +1322,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>41.86330983252897</v>
+        <v>41.86</v>
       </c>
       <c r="G27" t="n">
-        <v>41.1054811513151</v>
+        <v>45.03</v>
       </c>
     </row>
     <row r="28">
@@ -1355,10 +1355,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>11.1097971974221</v>
+        <v>11.11</v>
       </c>
       <c r="G28" t="n">
-        <v>18.27579077940872</v>
+        <v>14.22</v>
       </c>
     </row>
   </sheetData>
